--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.011420-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.011420-1.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2443,12 +2443,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2485,12 +2485,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2527,12 +2527,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2569,12 +2569,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2653,12 +2653,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2737,12 +2737,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3413,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4841,12 +4841,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5097,12 +5097,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5139,12 +5139,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5265,12 +5265,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5517,12 +5517,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5685,12 +5685,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5983,12 +5983,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6151,12 +6151,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6575,12 +6575,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7133,12 +7133,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8057,12 +8057,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8737,12 +8737,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8989,12 +8989,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9409,12 +9409,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11009,12 +11009,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11051,12 +11051,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11975,12 +11975,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12185,12 +12185,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12311,12 +12311,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12437,12 +12437,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12563,12 +12563,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12731,12 +12731,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12899,12 +12899,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12941,12 +12941,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13487,12 +13487,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14159,12 +14159,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14205,12 +14205,12 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14247,12 +14247,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14625,12 +14625,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14667,12 +14667,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14751,12 +14751,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15129,12 +15129,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15969,12 +15969,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16095,12 +16095,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16515,12 +16515,12 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16641,12 +16641,12 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16851,12 +16851,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17523,12 +17523,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17649,12 +17649,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18195,12 +18195,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18237,12 +18237,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19039,12 +19039,12 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19123,12 +19123,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
